--- a/data/trans_bre/P15_1-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P15_1-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -625,17 +625,17 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>1,41</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,5</t>
+          <t>1,64</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>26,27%</t>
+          <t>-6,89%</t>
         </is>
       </c>
     </row>
@@ -673,17 +673,17 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,93</t>
+          <t>0,0; 6,8</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,68; 7,24</t>
+          <t>0,0; 9,99</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 4,77</t>
+          <t>-6,12; 5,35</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-82,15; 437,8</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,1</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-1,44</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>161,29%</t>
+          <t>58,53%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>170,57%</t>
+          <t>-20,61%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>40,6%</t>
+          <t>19,88%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-13,64%</t>
+          <t>-1,92%</t>
         </is>
       </c>
     </row>
@@ -768,22 +768,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 2,06</t>
+          <t>-1,61; 2,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 2,0</t>
+          <t>-2,18; 0,98</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 4,1</t>
+          <t>-3,78; 4,54</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-7,46; 3,92</t>
+          <t>-8,5; 7,32</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -798,12 +798,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-52,3; 356,59</t>
+          <t>-73,06; 506,71</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-50,79; 52,33</t>
+          <t>-50,25; 108,41</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,11</t>
+          <t>-0,8</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,93</t>
+          <t>-2,27</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,89</t>
+          <t>1,67</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,87</t>
+          <t>-2,25</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-9,29%</t>
+          <t>-42,11%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-47,58%</t>
+          <t>-69,79%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>26,19%</t>
+          <t>43,31%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-18,96%</t>
+          <t>-20,67%</t>
         </is>
       </c>
     </row>
@@ -868,22 +868,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 1,75</t>
+          <t>-4,72; 1,58</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 1,02</t>
+          <t>-6,98; 0,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 4,27</t>
+          <t>-3,52; 6,24</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,18; 3,16</t>
+          <t>-9,69; 4,61</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -898,19 +898,19 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-61,24; 249,33</t>
+          <t>-59,63; 509,54</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-60,34; 51,72</t>
+          <t>-63,82; 75,66</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,22</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-1,49</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>42,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>7,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>48,54%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-16,32%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -968,48 +968,156 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 1,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 0,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 3,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,13; 1,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-80,38; 669,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-73,36; 351,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-33,99; 194,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-43,71; 27,92</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-0,11</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-0,69</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1,22</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-1,11</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-10,59%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-45,79%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>41,56%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-10,82%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-1,81; 1,15</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-2,43; 0,55</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-1,72; 4,0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-7,13; 3,02</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 553,73</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-91,31; 148,35</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-40,88; 247,51</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-49,05; 41,11</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>

--- a/data/trans_bre/P15_1-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P15_1-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,173 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>1,41</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1,64</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-0,2</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-6,89%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>1.351482718515183</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>1.552134138198523</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-0.02806905767862786</v>
+      </c>
+      <c r="G4" s="6" t="inlineStr"/>
+      <c r="H4" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I4" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.009878408258897445</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 6,8</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 9,99</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-6,12; 5,35</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr"/>
+      <c r="D5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-5.772380924525502</v>
+      </c>
+      <c r="G5" s="6" t="inlineStr"/>
+      <c r="H5" s="6" t="inlineStr"/>
+      <c r="I5" s="6" t="inlineStr"/>
+      <c r="J5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr"/>
+      <c r="D6" s="5" t="n">
+        <v>6.732047447494748</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>9.500161642808761</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>5.693181198389214</v>
+      </c>
+      <c r="G6" s="6" t="inlineStr"/>
+      <c r="H6" s="6" t="inlineStr"/>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>0,39</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-0,13</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,61</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-0,23</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>58,53%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-20,61%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>19,88%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-1,92%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-1,61; 2,11</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-2,18; 0,98</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-3,78; 4,54</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-8,5; 7,32</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-73,06; 506,71</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-50,25; 108,41</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>0.3897514291780816</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-0.1052494077170633</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.7845547967250767</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-1.629687408635126</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.5853144044143067</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.1782506745439807</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.2646102365109487</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.1223172445614898</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-0,8</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-2,27</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,67</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-2,25</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-42,11%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-69,79%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>43,31%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-20,67%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-1.606435058937215</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-2.025885211822791</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-3.411864800751562</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-11.17127253233317</v>
+      </c>
+      <c r="G8" s="6" t="inlineStr"/>
+      <c r="H8" s="6" t="inlineStr"/>
+      <c r="I8" s="6" t="n">
+        <v>-0.7251627790572258</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.5756314145288005</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-4,72; 1,58</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-6,98; 0,33</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-3,52; 6,24</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-9,69; 4,61</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-59,63; 509,54</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-63,82; 75,66</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>2.114724828538467</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.9867965438694934</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>4.843702693776018</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>6.521473918785301</v>
+      </c>
+      <c r="G9" s="6" t="inlineStr"/>
+      <c r="H9" s="6" t="inlineStr"/>
+      <c r="I9" s="6" t="n">
+        <v>5.648854079157025</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.8493429802420254</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,212 +801,203 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-0.7961541881928571</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-1.833247755307327</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>1.914896122984107</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-2.361823514435471</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-0.4211309945637156</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.6470639679071956</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.5469840445137529</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.2153612772272816</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-4.722177006862217</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-6.10799863526942</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-2.842731232719727</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-9.842627628175315</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>-0.5529483842956765</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.6439811053477205</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>1.580285223108038</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0.5169933478310773</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>6.356701348523009</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>4.545972830644874</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>5.739504533725187</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.7264622891432568</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-0,11</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-0,69</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>1,22</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-1,11</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-10,59%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-45,79%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>41,56%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-10,82%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-1,81; 1,15</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-2,43; 0,55</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-1,72; 4,0</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-7,13; 3,02</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 553,73</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-91,31; 148,35</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-40,88; 247,51</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-49,05; 41,11</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-0.1099566539532557</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-0.5598454104828979</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>1.332509189795214</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-1.922332626563615</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>-0.1058932447205487</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.4082145458724343</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.4806360431666521</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.1739603632676624</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-1.8145429823564</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-2.160734516142202</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-1.50171551429707</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-8.377446899038615</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.903315777071144</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.4026640186721686</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.5418225176984593</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>1.148081046780451</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.5826176612988075</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>4.047823192904778</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>2.696592758916597</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>5.537293364819738</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>1.711650135796682</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>2.670351095897241</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.3343935621883107</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
